--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020-ETDR\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>limit_type</t>
   </si>
@@ -41,13 +41,40 @@
     <t>Case</t>
   </si>
   <si>
-    <t>490000</t>
-  </si>
-  <si>
     <t>Transaction_Category</t>
   </si>
   <si>
     <t>Non Financial</t>
+  </si>
+  <si>
+    <t>480000</t>
+  </si>
+  <si>
+    <t>tran_type_query</t>
+  </si>
+  <si>
+    <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>tran_date_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.LEAD_FIELD1 FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.IVR_ATTRIBUTE3 FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>SELECT DT.IVR_ATTRIBUTE2 FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>old_limit_tran_query</t>
+  </si>
+  <si>
+    <t>new_limit_tran_query</t>
+  </si>
+  <si>
+    <t>limit_name_tran_query</t>
   </si>
 </sst>
 </file>
@@ -366,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,9 +405,11 @@
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -391,10 +420,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -402,10 +446,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020-ETDR\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-8262020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>new_limit</t>
   </si>
   <si>
-    <t>Funds Transfer to Own HBL Account</t>
-  </si>
-  <si>
     <t>As A user I want to verify Limit Reduction</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>Non Financial</t>
   </si>
   <si>
-    <t>480000</t>
-  </si>
-  <si>
     <t>tran_type_query</t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>limit_name_tran_query</t>
+  </si>
+  <si>
+    <t>FCY Local Account Fund Transfer</t>
+  </si>
+  <si>
+    <t>120000</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +411,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -420,54 +420,55 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-8262020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-922020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>limit_type</t>
   </si>
@@ -71,10 +71,22 @@
     <t>limit_name_tran_query</t>
   </si>
   <si>
-    <t>FCY Local Account Fund Transfer</t>
-  </si>
-  <si>
-    <t>120000</t>
+    <t>Funds Transfer to HBL Account</t>
+  </si>
+  <si>
+    <t>Utility Bills and Other Payments</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Funds Transfer to Other Banks Account</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23000</t>
   </si>
 </sst>
 </file>
@@ -393,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -464,6 +476,64 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-922020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hbl-Automation-9102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>limit_type</t>
   </si>
@@ -71,22 +71,10 @@
     <t>limit_name_tran_query</t>
   </si>
   <si>
-    <t>Funds Transfer to HBL Account</t>
-  </si>
-  <si>
-    <t>Utility Bills and Other Payments</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Funds Transfer to Other Banks Account</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>23000</t>
+    <t>QR Payments</t>
+  </si>
+  <si>
+    <t>90000</t>
   </si>
 </sst>
 </file>
@@ -405,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -476,64 +464,6 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hbl-Automation-9102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation(13-10-2020)\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
   <si>
     <t>limit_type</t>
   </si>
@@ -32,9 +32,6 @@
     <t>new_limit</t>
   </si>
   <si>
-    <t>As A user I want to verify Limit Reduction</t>
-  </si>
-  <si>
     <t>Case</t>
   </si>
   <si>
@@ -74,7 +71,55 @@
     <t>QR Payments</t>
   </si>
   <si>
-    <t>90000</t>
+    <t>Funds Transfer to Other Banks Account</t>
+  </si>
+  <si>
+    <t>Funds Transfer to HBL Account</t>
+  </si>
+  <si>
+    <t>Funds Transfer to Own HBL Account</t>
+  </si>
+  <si>
+    <t>Mobile Prepaid and Postpaid Payments</t>
+  </si>
+  <si>
+    <t>Utility Bills and Other Payments</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of QR Payments (PSD_Y)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account (PSD_Y)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account (PSD_Y)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account (PSD_Y)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments (PSD_Y)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments (PSD_Y)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of QR Payments (PSD_N)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account (PSD_N)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account (PSD_N)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account (PSD_N)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments (PSD_N)</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments (PSD_N)</t>
   </si>
 </sst>
 </file>
@@ -110,9 +155,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -410,8 +467,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -420,52 +477,426 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2">
+        <v>110000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3">
+        <v>90000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4">
+        <v>95000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>200000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>190000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>120000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>130000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>145000</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>2500</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>9000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>270000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/LimitManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation(13-10-2020)\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="48">
   <si>
     <t>limit_type</t>
   </si>
@@ -86,40 +86,88 @@
     <t>Utility Bills and Other Payments</t>
   </si>
   <si>
-    <t>To verify Limits reduction of QR Payments (PSD_Y)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Funds Transfer to Other Banks Account (PSD_Y)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Funds Transfer to HBL Account (PSD_Y)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Funds Transfer to Own HBL Account (PSD_Y)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments (PSD_Y)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Utility Bills and Other Payments (PSD_Y)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of QR Payments (PSD_N)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Funds Transfer to Other Banks Account (PSD_N)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Funds Transfer to HBL Account (PSD_N)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Funds Transfer to Own HBL Account (PSD_N)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments (PSD_N)</t>
-  </si>
-  <si>
-    <t>To verify Limits reduction of Utility Bills and Other Payments (PSD_N)</t>
+    <t>To verify Limits reduction of QR Payments Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of QR Payments Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of QR Payments Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of QR Payments Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>SELECT DT.CREATED_ON FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -450,453 +498,826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>110000</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
+      <c r="D2">
+        <v>90000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>90000</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>95000</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>200000</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>8000</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>190000</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
+      <c r="D7">
+        <v>120000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>120000</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
+      <c r="D8">
+        <v>4000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>130000</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
+      <c r="D9">
+        <v>13000</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>145000</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
+      <c r="D10">
+        <v>14000</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>2500</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
+      <c r="D11">
+        <v>250000</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>9000</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
+      <c r="D12">
+        <v>3000</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>270000</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
+      <c r="D13">
+        <v>20000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>80000</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>70000</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>80000</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>20000</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>20000</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>190000</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>140000</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>210000</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>19000</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
